--- a/output/orderIdsStreamics.xlsx
+++ b/output/orderIdsStreamics.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>RS21-AAA-ABU</t>
+    <t>RS22-FIJ-GOG</t>
+  </si>
+  <si>
+    <t>RS22-FUK-ZEL</t>
+  </si>
+  <si>
+    <t>RS22-JIC-MEQ</t>
+  </si>
+  <si>
+    <t>RS22-JIM-HOG</t>
+  </si>
+  <si>
+    <t>RS22-KUS-RAS</t>
   </si>
 </sst>
 </file>
@@ -88,7 +100,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="RS21-AAA-ABU.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="RS22-FIJ-GOG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -102,6 +114,158 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1714500" y="0"/>
+          <a:ext cx="1028700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="RS22-FUK-ZEL.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="0"/>
+          <a:ext cx="1028700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="RS22-JIC-MEQ.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="952500"/>
+          <a:ext cx="1028700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="RS22-JIM-HOG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="952500"/>
+          <a:ext cx="1028700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="RS22-KUS-RAS.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="1905000"/>
           <a:ext cx="1028700" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -399,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,9 +574,25 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
